--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregrada</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, Aline S. M.-T. M. Metalicos-1B]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregrada</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Comandos Eletricos-1B, Emerson-Comandos Eletricos-1B, Emerson-Comandos Eletricos-1B, Emerson-Comandos Eletricos-1B]</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ernane-Desenho tecnico mecanico-1B, Ernane-Desenho tecnico mecanico-1B, Ernane-Desenho tecnico mecanico-1B, Aline S. M.-T. M. Metalicos-1B]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Metrologia 1-1B, Weslei-Metrologia 1-1B, Weslei-Metrologia 1-1B, Weslei-Metrologia 1-1B]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">

--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ernane-Desenho tecnico mecanico-1B, Ernane-Desenho tecnico mecanico-1B]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Weslei-Metrologia 1-1B, Emerson-Comandos Eletricos-1B, -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline S. M.-T. M. Metalicos-1B, Aline S. M.-T. M. Metalicos-1B]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, -, -, Aline S. M.-T. M. Metalicos-1B]</t>
+          <t>[-, Weslei-Metrologia 1-1B, Emerson-Comandos Eletricos-1B, -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ernane-Desenho tecnico mecanico-1B, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Emerson-Comandos Eletricos-1B, Emerson-Comandos Eletricos-1B, Emerson-Comandos Eletricos-1B, Emerson-Comandos Eletricos-1B]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico-1B, Ernane-Desenho tecnico mecanico-1B, Ernane-Desenho tecnico mecanico-1B, Aline S. M.-T. M. Metalicos-1B]</t>
+          <t>[-, Weslei-Metrologia 1-1B, Emerson-Comandos Eletricos-1B, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1-1B, Weslei-Metrologia 1-1B, Weslei-Metrologia 1-1B, Weslei-Metrologia 1-1B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Weslei-Metrologia 1-1B, Emerson-Comandos Eletricos-1B, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregrada</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregrada</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">

--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico-1B, Ernane-Desenho tecnico mecanico-1B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Emerson-Comandos Eletricos-1B, -, Weslei-Metrologia 1-1B]</t>
         </is>
       </c>
     </row>
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-, Weslei-Metrologia 1-1B, Emerson-Comandos Eletricos-1B, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Aline S. M.-T. M. Metalicos-1B, Aline S. M.-T. M. Metalicos-1B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Comandos Eletricos-1B, -, Weslei-Metrologia 1-1B, -]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ernane-Desenho tecnico mecanico-1B, Ernane-Desenho tecnico mecanico-1B]</t>
         </is>
       </c>
     </row>
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, Weslei-Metrologia 1-1B, Emerson-Comandos Eletricos-1B, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico-1B, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Comandos Eletricos-1B, -, Weslei-Metrologia 1-1B, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Ernane-Desenho tecnico mecanico-1B]</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, Weslei-Metrologia 1-1B, Emerson-Comandos Eletricos-1B, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline S. M.-T. M. Metalicos-1B, Aline S. M.-T. M. Metalicos-1B]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregrada</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, Weslei-Metrologia 1-1B, Emerson-Comandos Eletricos-1B, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregrada</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Metrologia 1-1B, -, Emerson-Comandos Eletricos-1B, -]</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">

--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-, Emerson-Comandos Eletricos-1B, -, Weslei-Metrologia 1-1B]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline S. M.-T. M. Metalicos, Aline S. M.-T. M. Metalicos]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Emerson-Comandos Eletricos-1B, -, Weslei-Metrologia 1-1B, -]</t>
+          <t>Anselmo-Gestao Intregr</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico-1B, Ernane-Desenho tecnico mecanico-1B]</t>
+          <t>[-, Weslei-Metrologia 1, -, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -547,17 +547,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Ernane-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Emerson-Comandos Eletricos-1B, -, Weslei-Metrologia 1-1B, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-, Ernane-Desenho tecnico mecanico-1B]</t>
+          <t>[-, Weslei-Metrologia 1, -, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Ernane-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Aline S. M.-T. M. Metalicos-1B, Aline S. M.-T. M. Metalicos-1B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregrada</t>
+          <t>[-, Weslei-Metrologia 1, -, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -638,12 +638,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Ernane-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregrada</t>
+          <t>[-, Weslei-Metrologia 1, -, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1-1B, -, Emerson-Comandos Eletricos-1B, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1106,6 +1106,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>[Aline S. M.-T. M. Metalicos, Aline S. M.-T. M. Metalicos]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Anselmo-Gestao Intregr</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[-, Weslei-Metrologia 1, -, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, Ernane-Desenho tecnico mecanico]</t>
+          <t>[Ernane-Desenho tecnico mecanico, -]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-, Weslei-Metrologia 1, -, Emerson-Comandos Eletricos]</t>
+          <t>[Weslei-Metrologia 1, -, -, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, Ernane-Desenho tecnico mecanico]</t>
+          <t>[Ernane-Desenho tecnico mecanico, -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregr</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-, Weslei-Metrologia 1, -, Emerson-Comandos Eletricos]</t>
+          <t>[Weslei-Metrologia 1, -, -, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[Ernane-Desenho tecnico mecanico, -]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Anselmo-Gestao Intregr</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[-, Ernane-Desenho tecnico mecanico]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-, Weslei-Metrologia 1, -, Emerson-Comandos Eletricos]</t>
+          <t>[Weslei-Metrologia 1, -, -, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Metrologia 1, -, -, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Aline S. M.-T. M. Metalicos, Aline S. M.-T. M. Metalicos]</t>
+          <t>[-, -, Weslei-Metrologia 1, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline S. M.-T. M. Metalicos, Aline S. M.-T. M. Metalicos]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1, -, -, Emerson-Comandos Eletricos]</t>
+          <t>[-, -, Weslei-Metrologia 1, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ernane-Desenho tecnico mecanico, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1, -, -, Emerson-Comandos Eletricos]</t>
+          <t>[-, -, Weslei-Metrologia 1, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ernane-Desenho tecnico mecanico, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1, -, -, Emerson-Comandos Eletricos]</t>
+          <t>[-, -, Weslei-Metrologia 1, Emerson-Comandos Eletricos]</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ernane-Desenho tecnico mecanico, -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1, -, -, Emerson-Comandos Eletricos]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregr</t>
+          <t>[Aline S. M.-T. M. Metalicos, Aline S. M.-T. M. Metalicos]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Metrologia 1, Emerson-Comandos Eletricos, -, -]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-, -, Weslei-Metrologia 1, Emerson-Comandos Eletricos]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Aline S. M.-T. M. Metalicos, Aline S. M.-T. M. Metalicos]</t>
+          <t>[-, Ernane-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Metrologia 1, Emerson-Comandos Eletricos, -, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-, -, Weslei-Metrologia 1, Emerson-Comandos Eletricos]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico, -]</t>
+          <t>[-, Ernane-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Metrologia 1, Emerson-Comandos Eletricos, -, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-, -, Weslei-Metrologia 1, Emerson-Comandos Eletricos]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico, -]</t>
+          <t>[-, Ernane-Desenho tecnico mecanico]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Weslei-Metrologia 1, Emerson-Comandos Eletricos, -, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-, -, Weslei-Metrologia 1, Emerson-Comandos Eletricos]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">

--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Aline S. M.-T. M. Metalicos, Aline S. M.-T. M. Metalicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1, Emerson-Comandos Eletricos, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregr</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-, Ernane-Desenho tecnico mecanico]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1, Emerson-Comandos Eletricos, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-, Ernane-Desenho tecnico mecanico]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1, Emerson-Comandos Eletricos, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-, Ernane-Desenho tecnico mecanico]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Weslei-Metrologia 1, Emerson-Comandos Eletricos, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Emerson-Comandos Eletricos, -, -]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ernane-Desenho tecnico mecanico, -]</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, Weslei-Metrologia 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ernane-Desenho tecnico mecanico, -]</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregr</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Comandos Eletricos, -, -, Weslei-Metrologia 1]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ernane-Desenho tecnico mecanico, -]</t>
         </is>
       </c>
     </row>
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anselmo-Gestao Intregr</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Comandos Eletricos, -, -, Weslei-Metrologia 1]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Aline S. M.-T. M. Metalicos]</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Comandos Eletricos, -, -, Weslei-Metrologia 1]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Aline S. M.-T. M. Metalicos]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. M</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-, Emerson-Comandos Eletricos, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. M</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -547,17 +547,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. M</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, -, -, Weslei-Metrologia 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. M</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregr</t>
+          <t>João Bosco-Gestão Integr</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Emerson-Comandos Eletricos, -, -, Weslei-Metrologia 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Ernane-Desenho tecnico mecanico, -]</t>
+          <t>Aline S. M.-T. M. Metali</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. M</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Anselmo-Gestao Intregr</t>
+          <t>João Bosco-Gestão Integr</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Emerson-Comandos Eletricos, -, -, Weslei-Metrologia 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-, Aline S. M.-T. M. Metalicos]</t>
+          <t>Aline S. M.-T. M. Metali</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ernane-Des. Tec. M</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[Emerson-Comandos Eletricos, -, -, Weslei-Metrologia 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[-, Aline S. M.-T. M. Metalicos]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>João Bosco-Gestão Integr</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Aline S. M.-T. M. Metali</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>João Bosco-Gestão Integr</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,14 +606,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Aline S. M.-T. M. Metali</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Ernane-Des. Tec. M</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>João Bosco-Gestão Integr</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>-</t>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metali</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -638,14 +638,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Ernane-Des. Tec. M</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>João Bosco-Gestão Integr</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>-</t>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metali</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-1B.xlsx
+++ b/data/turm/MEC-1B.xlsx
@@ -483,17 +483,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Ernane-Des. Tec. M</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Ernane-Des. Tec. M</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>João Bosco-Gestão Integr</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metali</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>João Bosco-Gestão Integr</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Ernane-Des. Tec. M</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>João Bosco-Gestão Integr</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aline S. M.-T. M. Metali</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>João Bosco-Gestão Integr</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Ernane-Des. Tec. M</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Aline S. M.-T. M. Metali</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Ernane-Des. Tec. M</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Aline S. M.-T. M. Metali</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Ernane-Des. Tec. M</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
